--- a/exp/results/exp3_url_rf_plbf.xlsx
+++ b/exp/results/exp3_url_rf_plbf.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\LBF-STK\exp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\LBF-STK\exp\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938A6FDA-F81F-4724-AF64-4C824407EF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9212C14C-3CBE-43BA-8078-66AABFE8193B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>0.0020705871342840097</t>
-  </si>
-  <si>
-    <t>0.0006200063170454944</t>
   </si>
   <si>
     <t>0.0007135921762221728</t>
@@ -124,11 +121,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -435,7 +429,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -452,8 +446,8 @@
       <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
+      <c r="B2">
+        <v>6.2000631704549401E-4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -461,7 +455,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -469,7 +463,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -477,7 +471,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -485,7 +479,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -493,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -501,7 +495,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -509,7 +503,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -517,7 +511,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -525,7 +519,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -533,7 +527,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -541,7 +535,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -549,7 +543,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -557,7 +551,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -565,7 +559,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -573,7 +567,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -581,7 +575,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -589,7 +583,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -597,15 +591,15 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
